--- a/assets/DiseñoSoli.xlsx
+++ b/assets/DiseñoSoli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonxa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonxa\OneDrive\Escritorio\P$w01-Angular-Bank\EjemploBackend\landingpage\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F285F85F-B470-4038-BCA0-2E0C90F074CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291DC529-DEB0-4BE5-B4BF-E1EE7E33F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{30D50486-DDFE-4E33-8A2C-54073C22622A}"/>
   </bookViews>
@@ -988,7 +988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1654,12 +1654,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1996,6 +2009,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2020,9 +2034,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2200,6 +2211,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2287,6 +2301,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2305,7 +2322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2410,228 +2435,6 @@
         <a:xfrm>
           <a:off x="714375" y="0"/>
           <a:ext cx="510268" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6804</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3197678" cy="932090"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70B027C-E165-4AFE-919F-52CFF70D836B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="142875" y="3279321"/>
-          <a:ext cx="3197678" cy="932090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>394976</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33239</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AF5DBF-7434-4324-82CE-F009E681F35A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:duotone>
-            <a:schemeClr val="bg2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1156976" y="3551465"/>
-          <a:ext cx="992953" cy="774828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1143002" cy="952501"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E72255C-63B6-4EA2-89C0-A6B719F419C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="bg2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1061356" y="7592785"/>
-          <a:ext cx="1143002" cy="952501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>224517</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1245054" cy="979714"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DC2712-EA93-4497-8846-2D021E66C532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="bg2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4565196" y="7599590"/>
-          <a:ext cx="1245054" cy="979714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,17 +2768,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -3080,14 +2883,14 @@
         <v>44</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
       <c r="J8" s="60"/>
       <c r="K8" s="49"/>
     </row>
@@ -3452,14 +3255,14 @@
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="171" t="s">
+      <c r="D27" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
@@ -3628,10 +3431,10 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="170"/>
+      <c r="C36" s="171"/>
       <c r="D36" t="s">
         <v>221</v>
       </c>
@@ -3853,14 +3656,14 @@
         <v>62</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="167" t="s">
+      <c r="D47" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="169"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="170"/>
       <c r="J47" s="58">
         <v>2381471161</v>
       </c>
@@ -3903,14 +3706,14 @@
         <v>63</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="167" t="s">
+      <c r="D50" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="170"/>
       <c r="J50" s="58">
         <v>2382538321</v>
       </c>
@@ -7268,8 +7071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD6E23E-3DB8-40DE-A100-3A87F0CC100B}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7511,22 +7314,22 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="73"/>
-      <c r="B14" s="234" t="s">
+      <c r="B14" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="237"/>
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="73"/>
-      <c r="B15" s="237" t="s">
+      <c r="B15" s="238" t="s">
         <v>182</v>
       </c>
       <c r="C15" s="205"/>
@@ -7549,7 +7352,7 @@
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="73"/>
-      <c r="B16" s="238"/>
+      <c r="B16" s="239"/>
       <c r="C16" s="206"/>
       <c r="D16" s="206"/>
       <c r="E16" s="206"/>
@@ -7569,7 +7372,7 @@
       <c r="D17" s="232"/>
       <c r="E17" s="232"/>
       <c r="F17" s="233"/>
-      <c r="G17" s="231" t="s">
+      <c r="G17" s="234" t="s">
         <v>186</v>
       </c>
       <c r="H17" s="232"/>
@@ -7582,14 +7385,14 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="73"/>
-      <c r="B18" s="261" t="s">
+      <c r="B18" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="174" t="s">
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="175" t="s">
         <v>188</v>
       </c>
       <c r="H18" s="175"/>
@@ -7600,11 +7403,11 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="273"/>
       <c r="G19" s="6"/>
       <c r="H19" s="158" t="s">
         <v>189</v>
@@ -7618,11 +7421,11 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="273"/>
       <c r="G20" s="6"/>
       <c r="H20" s="158" t="s">
         <v>190</v>
@@ -7636,16 +7439,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="263" t="s">
+      <c r="B21" s="271"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="272"/>
+      <c r="E21" s="272"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="265" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="263"/>
-      <c r="I21" s="263"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
       <c r="J21" s="74" t="s">
         <v>157</v>
       </c>
@@ -7654,11 +7457,11 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="272"/>
+      <c r="D22" s="272"/>
+      <c r="E22" s="272"/>
+      <c r="F22" s="273"/>
       <c r="G22" s="6"/>
       <c r="H22" s="158" t="s">
         <v>191</v>
@@ -7674,11 +7477,11 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="272"/>
+      <c r="E23" s="272"/>
+      <c r="F23" s="273"/>
       <c r="G23" s="176" t="s">
         <v>192</v>
       </c>
@@ -7717,11 +7520,11 @@
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="73"/>
       <c r="B25" s="162"/>
-      <c r="C25" s="264" t="s">
+      <c r="C25" s="266" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="264"/>
-      <c r="E25" s="264"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="266"/>
       <c r="F25" s="160" t="s">
         <v>157</v>
       </c>
@@ -7769,10 +7572,10 @@
         <v>157</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="172" t="s">
+      <c r="H27" s="173" t="s">
         <v>258</v>
       </c>
-      <c r="I27" s="173"/>
+      <c r="I27" s="174"/>
       <c r="J27" s="126" t="s">
         <v>157</v>
       </c>
@@ -7842,14 +7645,14 @@
     </row>
     <row r="32" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="73"/>
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="240" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="240" t="s">
+      <c r="C32" s="241" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="241"/>
       <c r="F32" s="134" t="s">
         <v>169</v>
       </c>
@@ -7869,10 +7672,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="73"/>
-      <c r="B33" s="239"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
+      <c r="B33" s="240"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
       <c r="F33" s="136"/>
       <c r="G33" s="136"/>
       <c r="H33" s="136"/>
@@ -7885,15 +7688,15 @@
       <c r="B34" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="248"/>
-      <c r="D34" s="249"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="250" t="s">
+      <c r="C34" s="249"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="251" t="s">
         <v>248</v>
       </c>
-      <c r="I34" s="251"/>
+      <c r="I34" s="252"/>
       <c r="J34" s="139"/>
       <c r="K34" s="34"/>
       <c r="M34" s="125"/>
@@ -7911,20 +7714,20 @@
       <c r="H35" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="I35" s="246"/>
-      <c r="J35" s="247"/>
+      <c r="I35" s="247"/>
+      <c r="J35" s="248"/>
       <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
-      <c r="B36" s="239" t="s">
+      <c r="B36" s="240" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="240" t="s">
+      <c r="C36" s="241" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="240"/>
-      <c r="E36" s="240"/>
+      <c r="D36" s="241"/>
+      <c r="E36" s="241"/>
       <c r="F36" s="134" t="s">
         <v>169</v>
       </c>
@@ -7944,10 +7747,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="73"/>
-      <c r="B37" s="239"/>
-      <c r="C37" s="241"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
+      <c r="B37" s="240"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
       <c r="H37" s="136"/>
@@ -7960,33 +7763,33 @@
       <c r="B38" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="248"/>
-      <c r="D38" s="249"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="249"/>
-      <c r="G38" s="249"/>
-      <c r="H38" s="250" t="s">
+      <c r="C38" s="249"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="250"/>
+      <c r="G38" s="250"/>
+      <c r="H38" s="251" t="s">
         <v>248</v>
       </c>
-      <c r="I38" s="251"/>
+      <c r="I38" s="252"/>
       <c r="J38" s="139"/>
       <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="73"/>
-      <c r="B39" s="253" t="s">
+      <c r="B39" s="254" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="254"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="254"/>
-      <c r="F39" s="255"/>
-      <c r="G39" s="256" t="s">
+      <c r="C39" s="255"/>
+      <c r="D39" s="255"/>
+      <c r="E39" s="255"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="257" t="s">
         <v>202</v>
       </c>
-      <c r="H39" s="254"/>
-      <c r="I39" s="254"/>
-      <c r="J39" s="257"/>
+      <c r="H39" s="255"/>
+      <c r="I39" s="255"/>
+      <c r="J39" s="258"/>
       <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -8095,32 +7898,32 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="73"/>
-      <c r="B48" s="258" t="s">
+      <c r="B48" s="259" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="259"/>
-      <c r="D48" s="259"/>
-      <c r="E48" s="259"/>
-      <c r="F48" s="259"/>
-      <c r="G48" s="259"/>
-      <c r="H48" s="259"/>
-      <c r="I48" s="259"/>
-      <c r="J48" s="260"/>
+      <c r="C48" s="260"/>
+      <c r="D48" s="260"/>
+      <c r="E48" s="260"/>
+      <c r="F48" s="260"/>
+      <c r="G48" s="260"/>
+      <c r="H48" s="260"/>
+      <c r="I48" s="260"/>
+      <c r="J48" s="261"/>
       <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="73"/>
-      <c r="B49" s="265" t="s">
+      <c r="B49" s="267" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="266"/>
-      <c r="D49" s="266"/>
-      <c r="E49" s="266"/>
-      <c r="F49" s="266"/>
-      <c r="G49" s="266"/>
-      <c r="H49" s="266"/>
-      <c r="I49" s="266"/>
-      <c r="J49" s="267"/>
+      <c r="C49" s="268"/>
+      <c r="D49" s="268"/>
+      <c r="E49" s="268"/>
+      <c r="F49" s="268"/>
+      <c r="G49" s="268"/>
+      <c r="H49" s="268"/>
+      <c r="I49" s="268"/>
+      <c r="J49" s="269"/>
       <c r="K49" s="34"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -8141,9 +7944,9 @@
       <c r="B51" s="73"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="268"/>
-      <c r="G51" s="268"/>
+      <c r="E51" s="270"/>
+      <c r="F51" s="270"/>
+      <c r="G51" s="270"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="34"/>
@@ -8154,11 +7957,11 @@
       <c r="B52" s="73"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="242" t="s">
+      <c r="E52" s="243" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="242"/>
-      <c r="G52" s="242"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="243"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="34"/>
@@ -8166,30 +7969,30 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="73"/>
-      <c r="B53" s="243" t="s">
+      <c r="B53" s="244" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="244"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="244"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="244"/>
-      <c r="I53" s="244"/>
-      <c r="J53" s="245"/>
+      <c r="C53" s="245"/>
+      <c r="D53" s="245"/>
+      <c r="E53" s="245"/>
+      <c r="F53" s="245"/>
+      <c r="G53" s="245"/>
+      <c r="H53" s="245"/>
+      <c r="I53" s="245"/>
+      <c r="J53" s="246"/>
       <c r="K53" s="34"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="73"/>
-      <c r="B54" s="243"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="244"/>
-      <c r="E54" s="244"/>
-      <c r="F54" s="244"/>
-      <c r="G54" s="244"/>
-      <c r="H54" s="244"/>
-      <c r="I54" s="244"/>
-      <c r="J54" s="245"/>
+      <c r="B54" s="244"/>
+      <c r="C54" s="245"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="245"/>
+      <c r="F54" s="245"/>
+      <c r="G54" s="245"/>
+      <c r="H54" s="245"/>
+      <c r="I54" s="245"/>
+      <c r="J54" s="246"/>
       <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -8223,11 +8026,11 @@
       <c r="B57" s="82"/>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
-      <c r="E57" s="252" t="s">
+      <c r="E57" s="253" t="s">
         <v>207</v>
       </c>
-      <c r="F57" s="252"/>
-      <c r="G57" s="252"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
       <c r="H57" s="38"/>
       <c r="I57" s="142" t="s">
         <v>250</v>
@@ -8249,10 +8052,10 @@
       <c r="K58" s="40"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="269"/>
+      <c r="C71" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="G39:J39"/>
@@ -8293,6 +8096,7 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C4:F4"/>
@@ -8303,6 +8107,7 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B19:F23"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G23:H23"/>
@@ -8318,7 +8123,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
